--- a/docs/excel/TBundle.xlsx
+++ b/docs/excel/TBundle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bundle" sheetId="1" r:id="rId1"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TableName: "TexasRoom" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>qin</t>
   </si>
   <si>
@@ -131,6 +127,10 @@
   </si>
   <si>
     <t>Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "Bundle" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -559,22 +559,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4">
         <v>1004</v>
@@ -633,16 +633,16 @@
         <v>1002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -656,16 +656,16 @@
         <v>1003</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>1004</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -702,16 +702,16 @@
         <v>2001</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -1923,8 +1923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1936,7 +1936,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TBundle.xlsx
+++ b/docs/excel/TBundle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="1"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="Bundle" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>org.qypoker.i.texas427</t>
   </si>
   <si>
-    <t>org.istar9.a.xydp</t>
-  </si>
-  <si>
     <t>BundleId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,6 +128,10 @@
   </si>
   <si>
     <t>TableName: "Bundle" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.jiantfuntexaspoker.running</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G306"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -559,22 +560,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -702,7 +703,7 @@
         <v>2001</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -1923,7 +1924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1936,7 +1937,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TBundle.xlsx
+++ b/docs/excel/TBundle.xlsx
@@ -131,8 +131,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.jiantfuntexaspoker.running</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>com.giantfun.texaspoker</t>
   </si>
 </sst>
 </file>
@@ -543,7 +542,7 @@
   <dimension ref="A1:G306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
